--- a/500all/speech_level/speeches_CHRG-114hhrg99799.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99799.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Okay. Mr. Cleaver managed to make it through our Washington traffic here and has joined us. So let's call the subcommittee to order.    The Subcommittee on Housing and Insurance will come to order. Today's hearing is entitled, ``How to Create a More Robust and Private Flood Insurance Marketplace.''    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Before we begin today, I would like to thank the witnesses for appearing today. I look forward to your testimony.    And I now recognize myself for 2\\1/2\\ minutes to give an opening statement.    Flooding has devastated large areas of my home State of Missouri as well as the neighboring State of Illinois, tragically claiming lives and causing millions of dollars of damage. In the past several months, we have seen similar situations from South Carolina to southern California. Unfortunately, these are not isolated incidents. Flooding continues to be the most prevalent natural disaster in the United States. As communities in Missouri and across the Nation begin to put their lives back together, it is fitting that this subcommittee continues to examine flood insurance and the current construct of the National Flood Insurance Program (NFIP). Yesterday, this subcommittee held a hearing to discuss the state of flood insurance in America.    Last week, I convened a roundtable discussion on flood mapping. What has become evident is that total reliance on insurance coverage for the NFIP is inadequate. Members agree across party lines that policyholders, communities, and taxpayers deserve better. One of the first steps toward reform is to allow policyholders to access market-based flood insurance policies.    H.R. 2901, the Flood Insurance Market Parity and Modernization Act of 2015, introduced by the gentleman from Florida, Mr. Ross, and the gentleman from Florida, Mr. Murphy, would allow for greater consumer choice and private market participation. It does so under the close supervision of the State Insurance Commissioners, the foundation of the regulatory system we have worked in an overwhelming bipartisan fashion to protect. By removing the ambiguity around what qualifies as acceptable flood insurance, property owners will be assured of greater options and flexibility in their choice of policies. Providing private competition to the publicly administered NFIP will also promote competition in markets which have previously been underserved.    I owe it to my constituents back in Missouri, and to all Americans who have suffered from flood damage, to create a program for flood insurance that is stable, accessible, and cost-effective.    Before I yield to the ranking member, I ask unanimous consent to insert into the record letters on H.R. 2901 from the NAIC, PCI, AIA, NAMIC, NAPSLO, the Big ``I,'' CIAB, the National Association of Professional Insurance Agents, the Financial Services Roundtable, the SmarterSafer Coalition, the Reinsurance Association of America, the National Association of REALTORS\x04, MBA, ABA, and the National Multifamily Housing Council and the National Apartment Association. As you can see, there is wide support across the industry spectrum for this alternative to our present system.    Without objection, it is so ordered.    The Chair now recognizes the ranking member of the subcommittee, the gentleman from Missouri, Mr. Cleaver, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400639</t>
   </si>
   <si>
-    <t>Emanuel Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Cleaver. Thank you, Mr. Chairman. Let me, again, thank you, as I did yesterday, for the very proactive step you have taken toward dealing with the issue of insurance before it becomes caught up in a critical year where we are not going to have a lot of workdays. And I think it is appropriate for us to continue, as you have already begun, hearing issues that relate to flood insurance. We discussed yesterday, I think rather broadly, the NFIP, and we highlighted areas where there is room for improvement and discussed ways in which the NFIP could be reauthorized.    Today is our second hearing on flood insurance, and today we will be discussing the role of private insurance in the flood insurance market, which is a significant issue and a significant concern. And we dealt with it yesterday, but I think the key to this whole issue is whether or not the private sector is interested in and willing to become intimately involved in this program. We have attempted this over the years. The program was created in 1968 to provide flood coverage to consumers who were unable to get coverage from the very limited private market. The NFIP is responsible not only for providing flood insurance, but for developing flood maps and promoting mitigation activities.    One of the things that I think we all have come to see is that flooding can occur anywhere. I grew up in a flat part of Texas, the Dallas area on toward probably until you get to Palo Duro Canyon around Amarillo is just flat. And last summer, in this flatland, there was all kinds of flooding. And we do know that it can and does occur everywhere, and can have a devastating impact on our communities. But one of the things we have also learned is that when these major events occur, like Hurricane Katrina, it pretty much decimates any private participation and the government has had to do a lot of backstopping, both for Sandy and Katrina.    And then as we begin to discuss reauthorization of the program, I think we have to ensure products remain affordable and available. Our conversation must also focus on the importance of obtaining accuracy in our mapping, which is a really big issue in the rural part of the 5th District, which I represent in Missouri. And as mapping and risk technology has developed since the creation of the NFIP, the appetite for private insurers to re-enter the flood market has grown.    And so, I look forward to hearing our witnesses today discuss ways in which the private role in flood insurance could grow.    Thank you, Mr. Chairman. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412411</t>
   </si>
   <si>
-    <t>Dennis A. Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Ross. Thank you, Mr. Chairman. And thank you very much for holding this important hearing about an issue to which I am dedicated. And that is, providing American homeowners more affordable consumer options in the flood insurance marketplace. I would also like to thank our distinguished guests for their testimony today, and Representative Patrick Murphy for joining me in introducing the Flood Insurance Market Parity and Modernization Act, which we will be discussing this morning.    Since joining the House Financial Services Committee, I have urged my colleagues to work with me to address the shortcomings of the current government flood insurance model known as the National Flood Insurance Program. Yesterday, we held our first in a series of hearings to examine the problems with this Federal program, and to explore solutions that benefit homeowners. Floridians and Americans across the country would greatly benefit from more choices when it comes to flood insurance policies, and private competition in this market will lead to greater innovations and more affordable and comprehensive policies for consumers.    Unfortunately, regulatory barriers and the bias of regulators favoring NFIP policies have prevented the development of a private flood insurance marketplace. This was not the intention of the Biggert-Waters Act. Rather, it was an unintended consequence. With Florida homeowners in mind, I introduced H.R. 2901, the Flood Insurance Market Parity and Modernization Act. This bipartisan legislation will remove the unnecessary regulatory barriers that are hindering consumers' flood insurance options.    As the primary insurance regulator for my home State of Florida, I am proud that our Commissioner of Insurance Regulation, Kevin McCarty, has offered his full support of this legislation. I urge my colleagues on both sides of the aisle to join me in enacting this commonsense, bipartisan legislation that will encourage the expansion of a well-regulated, more affordable private flood insurance option for homeowners. And I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Rothfus. Thank you, Mr. Chairman.    It is my privilege to welcome Pennsylvania's Insurance Commissioner, Teresa Miller, to the Financial Services Committee today. Commissioner Miller was confirmed to her role in June of last year. In that capacity, see oversees the fifth largest insurance market in the country, and the fourteenth largest in the world in terms of premium volume. This is a significant and challenging responsibility in our large and diverse State.    Fortunately, Commissioner Miller brings years of experience to her new appointment and to our subcommittee today, having previously served in Oregon's insurance division as well as in the private sector. She will be speaking to us today not just as Pennsylvania's Insurance Commissioner, but also as an active NAIC member.    Commissioner Miller serves on the Federal Advisory Committee on Insurance (FIO), providing advice and recommendations to the Federal Insurance Office on issues such as automobile insurance affordability, and international insurance developments. Given Pennsylvania's history of flooding, and ongoing concerns about the impact of flood insurance policy on its citizens, I expect Commissioner Miller to provide welcome insight into the future of the NFIP and impactful reforms for the committee to consider. Thank you again for coming, Commissioner Miller, and I yield back.</t>
   </si>
   <si>
@@ -97,36 +85,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Miller. Good morning. Thank you, Chairman Luetkemeyer, and Ranking Member Cleaver. And thank you, Congressman Rothfus, for your kind introduction. I appreciate the opportunity to testify today to provide State insurance regulators' views on issues surrounding the development of a private flood insurance market. Facilitating increased private sector involvement in the sale of flood insurance will help promote consumer choice and spur competition. It will also provide homeowners necessary coverage, often at greatly reduced costs. In Pennsylvania, we are finding that in many cases, private carriers are willing to offer comparable coverage at substantially lower cost than NFIP. In one instance, a property owner would have paid a $7,500 annual premium with the NFIP, but found private coverage for a little over $1,400.    Another homeowner was quoted a $6,000 annual premium by NFIP, but found a private policy for $900. Like other types of new coverages, private flood insurance is being developed and offered first by the surplus lines insurers. These insurers typically insure unique or otherwise difficult to underwrite risks that the admitted market is at least initially reluctant to insure. As detailed in my written testimony, we have significant authorities to ensure consumers in the surplus lines market are well-protected. These authorities include capital, surplus, and eligibility requirements on surplus lines carriers, as well as the ability to hold both the insurer and the broker responsible for any misconduct.    As the private flood insurance market grows and more companies offer coverage, including admitted companies, our regulation will continue to evolve to meet the size and the breadth of the market as well as the needs of consumers. However, more can be done to help facilitate the development of this market, providing consumers more choices and more affordable coverage.    One of the objectives of the Biggert-Waters Act was to create opportunities for the growth of the private market as an alternative to the NFIP. Unfortunately, the definition of and the regulatory environment surrounding private flood insurance is at odds with this objective, making it more difficult for insurance regulators to protect consumers and ensure availability. The Flood Insurance Market Parity and Modernization Act addresses these concerns, which is why I am here today to support it.    Specifically, we find it troubling that Biggert-Waters empowered Federal banking and housing regulators and the GSEs to apply their own requirements related to the financial solvency strength or claims-paying ability of private insurance companies from which they will accept private flood insurance. This is highly problematic as banking and housing regulators have neither the expertise nor the experience to regulate insurance companies or markets. Moreover, they have regulatory objectives that while laudable, are fundamentally different than insurance consumer protection and fostering competitive insurance markets.    They are simply ill-suited to regulate insurance, and it is inappropriate for them to have the authority to substitute their judgment for those charged under the law with regulating insurance products and protecting policyholders. To address this, H.R. 2901 includes important language clarifying that State insurance regulators have the same authority and discretion to regulate private flood insurance as they have to regulate other similar insurance products and markets. We very much appreciate these clarifications as they are critical for NAIC's support for this legislation.    Another impediment for entrants into the market is the vague definition of private flood insurance included in Biggert-Waters. In order for a private market to evolve, insurers need flexibility to tailor insurance products to meet consumer needs. Biggert-Waters does not allow for innovation, but rather focuses on ensuring policies don't deviate from its rigid criteria. This is despite the fact that private insurers may be able to offer additional coverage features or greater limits at a more affordable price.    H.R. 2901 provides a clearer definition of private flood insurance by clarifying that State insurance laws solely govern over the insurance transaction. It will ensure that State insurance regulators have the flexibility to approve private flood insurance coverage that is responsive to the needs of their States and constituents, while complying with their State's regulatory requirements. These clarifications will assist in removing the restrictive and confusing language in current law to help prompt more insurers to enter the market if they are willing.    In conclusion, State insurance regulators support efforts to further develop the private market to help provide consumers with access to additional options for flood insurance products and coverage at potentially more affordable prices.    We appreciate very much Congressmen Ross and Murphy's leadership on H.R. 2901, and look forward to continuing to work together as this bill moves forward. I appreciate very much the opportunity to be here on behalf of the NAIC. Thank you.    [The prepared statement of Commissioner Miller can be found on page 129 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Thank you, Ms. Miller.    Mr. Bradshaw, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bradshaw</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Bradshaw. Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee. My name is Steve Bradshaw, and I appreciate the opportunity to testify today on behalf of the Mortgage Bankers Association.    I am currently executive vice president of Standard Mortgage Corporation, a lender and servicer headquartered in New Orleans, Louisiana. The company was founded in 1925 and currently services approximately 28,000 residential mortgage loans throughout the southeast.    This past August marked the 10th anniversary of one of the most significant flood events in U.S. history, Hurricane Katrina. We experienced the massive devastation firsthand. Approximately 3,500 of our servicing customers sustained significant flood damage to their homes. And on a more personal note, nearly two-thirds of our staff lost their homes.    As a result of Hurricane Katrina and two other significant storms in the fall of 2005, more than one million housing units were damaged across five States. There is no doubt that the National Flood Insurance Program was the key component to the Gulf Coast recovery, just as it has been for other communities across the country that have sustained major flooding or are flooding today. But there is also no doubt that the NFIP needs to be reformed. The program is now $23 billion in debt and is simply not sustainable as it is. The Federal Government cannot and should not bear the full burden of post-disaster recovery.    Congress recognized when it passed Biggert-Waters that private sector flood insurance must be allowed to develop in order to ensure a stable, sustainable, and affordable market. Expanding flood insurance options will make it easier for more homeowners to obtain flood insurance. And a competitive flood insurance market will expand available insurance options, lower cost, and increase the number of at-risk properties that are insured. In other words, we are expanding the pool.    For example, many homes that were destroyed in Katrina were not located in a special flood hazard area. Homes outside those zones are not required to have flood insurance. As a result, mortgage servicers like us were liable for the cost when those homes were wiped out. The MBA believes that increased private sector involvement can also serve to shift some of the burden--not all of the burden--of post-disaster recovery away from the Federal Government and to the private sector. This will limit taxpayer exposure to future flood losses.    In light of this, we support H.R. 2901, the Flood Insurance Market Parity and Modernization Act. The bill provides two important improvements to the NFIP. First, the bill clarifies what constitutes an acceptable private flood insurance policy by providing a clear definition of private flood insurance. This will make it easier for lenders to accept private policies to satisfy the mandatory purchase requirement.    Second, H.R. 2901 addresses lenders' concerns regarding continuous coverage requirements. Under current law, it is unclear whether someone previously covered under an NFIP policy who moves to a private sector policy would be eligible to return to the NFIP policy at their previous rate. We are pleased that H.R. 2901 eliminates this disincentive for consumers to choose a private policy. It does so by clarifying that private flood insurance satisfies the continuous coverage requirement.    In summary, MBA supports H.R. 2901 as a simple way to encourage the growth of a competitive private flood insurance market. Increased private sector involvement will hopefully expand available insurance options for borrowers, lower cost for consumers, and reduce taxpayer exposure to flood losses over time. We are especially grateful for the leadership shown by Representatives Dennis Ross and Patrick Murphy on this legislation, and we urge the subcommittee to approve it.    Thank you, again, for the opportunity to testify today. The MBA commends your efforts to expand the private flood insurance market, and I look forward to any questions you may have.    [The prepared statement of Mr. Bradshaw can be found on page 63 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Thank you, Mr. Bradshaw.    Mr. Kelley, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kelley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Kelley. Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, Chairman Hensarling, and members of the subcommittee. My name is Brady Kelley. I am the executive director of the National Association of Professional Surplus Lines Offices based in Kansas City, Missouri. Thank you for inviting me here today to testify on H.R. 2901.    Surplus lines is a $40.2 billion market. And NAPSLO members broker and underwrite a very high proportion of that. Our market, often referred to as the nonadmitted market, exists to provide insurance coverage for nonstandard and complex risks, and to provide cover for risks that exceed what the standard market is either willing or able to underwrite. It is the State's approach to regulating that market, which includes providing what is freedom from rate and form regulation, that allows it to work as this effective supplement. This fundamental principle is part and parcel to its effective operation and regulation.    Consider, for example, the impact of catastrophic losses that cause standard carriers to either withdraw or significantly curtail underwriting in certain regions of the country, or in certain lines of business. Exhibit one of our testimony tries to illustrate that. Market responses to catastrophic events by measuring the rates at which surplus lines premium has shifted either up or down over time in relation to total U.S. property casualty premium. You see events like the Northridge earthquake, 9/11, and hurricanes in 2005. They were all followed by very clear spikes in surplus lines premium, spikes that exceed the growth of the overall property casualty market. And then you see the reverse being true in years following that where catastrophe losses are lower or as the standard market re-adjusts. Without this safety net, consumers would be left without coverage for their commercial risks and/or their personal assets.    These same fundamentals apply in the case of private flood insurance. Consumers whose flood risks do not fit within the terms and limits of the NFIP, or whose risks are declined by the standard market, will look to our market, surplus lines, for the solution. It is important to point out that this is not new. Why might that be? Property exposures may exceed the $250,000 limit within the NFIP on a residential property, or the half million dollar limit on a commercial property. Homeowners may want replacement coverage rather than actual cash value for their property. They might want to insure additional structures, or list other properties on one policy. They might need additional living expense, basement exposure, and/or business interruption for a commercial entity.    These examples, coupled with communities or zones that are not eligible for NFIP coverage, mean consumer alternatives are absolutely essential. Our written testimony includes some facts and figures about the size of the surplus lines flood insurance market, and while you will see that they represent a relatively small proportion of the overall market, without it, consumers who need it would have no alternative.    This is precisely why we strongly support H.R. 2901. Although our market is currently allowed to provide private flood insurance, the 2012 law created uncertainty for lenders and consumers. Specifically, lenders became uncertain about accepting surplus lines policies in light of the law's requirements, and because it authorized Federal banking and housing regulators to apply their own requirements on private insurance companies. No regulations have been developed since that time. And it is prolonging this uncertainty. Uncertainty is the problem, but H.R. 2901 is the fix. It simply ensures our market's continued role in solving unique and complex flood risks that exceed or differ from the options available through either the NFIP or the standard market.    In addition, H.R. 2901 maintains the authority and primacy of State Insurance Commissioners in regulating private flood insurance. Because of their experience, their strong track record, and their success in regulating the U.S. business, we obviously strongly support that.    We have also provided written testimony describing how the States regulate the surplus lines market. I think Commissioner Miller has already done a pretty thorough job of describing that. So let me simply reiterate the importance and degree of each State's authority over both the insurance company and the surplus lines broker in a surplus lines transaction.    As a result, the 2015 A.M. Best report illustrates an exemplary solvency record for our market. It is included as another exhibit in the testimony. H.R. 2901 will solve the problems and concerns shared by the insurance and banking industries by preserving our market's ability to offer options to consumers. Without it, consumers who need it will have no alternative. Legislators on both sides of the aisle have expressed a desire to not just extend, but to also improve the NFIP going forward. And I think the witnesses over the last couple of days certainly agree with that. We believe H.R. 2901 is a positive step in that direction because it enables the private market to develop, and it allows the NFIP to focus on those properties with repetitive losses and their goal of flood loss mitigation and prevention.    We appreciate Congressmen Ross and Murphy for introducing the bill. Again, we thank you for the opportunity to be here. We look forward to working with you as this bill moves forward. Thank you.    [The prepared statement of Mr. Kelley can be found on page 68 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Thank you, Mr. Kelley.    And Mr. Birnbaum, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Birnbaum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Birnbaum. Thank you. Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee, my name is Birny Birnbaum. Thank you for the invitation to speak to you today.    The availability and affordability of flood insurance is a critical issue for individual and community well-being, economic development, and a resilient and sustainable future. I have worked on these issues for over 20 years as an insurance regulator, consulting economist, and consumer advocate. Your invitation to testify asked whether the NFIP, as it is presently constituted, represents an ideal model for the effective protection of residential and commercial property owners from damages relating to flooding. The answer to that question is a resounding ``no'' for a number of reasons. The primary problem of the NFIP is the multiple and conflicting goals that Congress has tasked the Program with, and the constraints and requirements Congress has placed on the Program. The starting point for Congress and the Federal Government should be a laser-like focus that Federal expenditures related to flood promote more resilient and sustainable homes, businesses, communities, and infrastructure against the peril of flood.    With this as the clear goal, any proposal regarding the NFIP can be evaluated by asking, ``Does this change promote resiliency and sustainability or not?'' The reason why resiliency and sustainability must be the overarching goal for restructuring the NFIP is that there is no insurance mechanism--public, private, or combo--that will be able to finance increasingly frequent and severe flooding. And a focus on resiliency and sustainability means Federal expenditures as investments today to replace disaster relief expenditures tomorrow.    The way forward: There is a great opportunity for greater reliance on private insurers and markets to provide flood insurance, but H.R. 2901 is not the approach to accomplish this. And certainly, it's not the approach to make the NFIP more financially sound or achieve greater resiliency and sustainability. The best approach for Congress to achieve these goals is to require that flood be covered in standard residential and commercial property insurance policies, and subject to the same State-based regulatory framework that exists for homeowners and commercial property insurance today.    There are four key actions needed by 2017:    One, get the NFIP out of the business of being a flood insurance company by requiring that residential and commercial insurance policies sold by private insurers cover the peril of flood. That requirement turns flood back to the States where all other property insurance products and markets are regulated, and back to private insurers, re-insurers, and catastrophe models who have the capability and capital to provide flood coverage more comprehensively and efficiently than the Federal Government.    Two, transition the NFIP from a direct provider of insurance to a mega-catastrophe re-insurer utilizing the successful model of the Terrorism Risk Insurance Program.    Three, address the affordability problem of flood insurance with Federal, State, and local assistance outside of the insurance system, no-subsidies insurance pricing with an overwhelming emphasis on assistance for lost mitigation as the tool to create more affordable premiums.    And four, reauthorize the NFIP during a period of transition.    As we have seen over the last decade, the congressional changes to the NFIP have lurched from efforts that longer-term reform to responses to current crises, with the responses to current crises often contributing to bigger problems down the road. H.R. 2901 is a response to a current issue. Federal agencies have been slow in promulgating rules regarding private flood insurance and surplus lines insurers see an opportunity to pick off NFIP policies that are mispriced due to NFIP rating practices.    H.R. 2901 will not address the longer-term problems of the NFIP, will not meaningfully promote private market participation in the sale of flood insurance, and will create bigger problems in the future when a flood event occurs. H.R. 2901 attempts to encourage private flood by defining private flood to include surplus lines insurance for residential properties, and by eliminating Federal oversight, removing current consumer protection requirements for private flood, removing the authority of Federal agencies to implement those requirements, and removing the authority of Government-Sponsored Enterprises (GSEs) to establish standards for the claims-paying ability of insurers, which they already do now for hazard insurance.    Surplus lines or nonadmitted carriers can be distinguished from admitted insurers in the following ways: Admitted insurers are licensed by a State insurance department to sell certain types of insurance. These insurers are subject to regulatory requirements for the filing and approval of policy forms and rates, are subject to the State's consumer protection laws regarding unfair trade practices and unfair competition, and importantly, participate in the State guaranty fund, which pays claims in the event the admitted insurers become insolvent.    In contrast, surplus lines insurers are not licensed by State insurance departments. Rather, the State department regulates surplus lines agents who are authorized to place coverage with a surplus line insurer on a list of acceptable insurers. Surplus lines policy forms and rates are not subject to regulatory oversight, and surplus lines insurers do not participate in State guaranty funds.    I understand the theory behind H.R. 2901 is that admitted insurers are not willing to write private flood, but surplus lines insurers would be if certain requirements, such as comparability with the NFIP policy or claims settlement requirements, were relaxed.    The story continues that once surplus lines insurers are offering private flood, admitted insurers will be more comfortable. I have seen no empirical evidence to remotely suggest admitted carriers will do as suggested. I have seen surplus lines insurers write business that admitted insurers would have written, and I have seen personalized business migrate from the admitted market to surplus lines when permitted to do so to take advantage of fewer consumer protection requirements.    The actual results of these changes will be for surplus lines insurers to cherry-pick NFIP policies that are currently overpriced due to the NFIP's broad rating scheme and loadings for contingency and reserves. While the surplus lines insurers take the profitable low-risk policies, the NFIP will become even more financially vulnerable as its premium revenue will decline far faster than its risk exposure. H.R. 2901 will not only create financial problems for the NFIP in the future, it will set the table for more problems--</t>
   </si>
   <si>
@@ -214,9 +190,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Pearce. Thank you, Mr. Chairman. I appreciate your testimony. Ms. Miller, thanks. Your testimony is extraordinarily clear and precise, especially in the recommendations.    You recommend that more flexibility is needed under Biggert-Waters. Could you describe that flexibility just a little bit? Flesh that out a little bit more? What would it look like?</t>
   </si>
   <si>
@@ -301,9 +274,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Posey. Thank you, Mr. Chairman. And, again, I would like to express my appreciation to Chairman Luetkemeyer for holding these hearings and for his efforts to help us get ahead of this issue a little bit.    The National Flood Insurance Program is currently $23 billion in debt. That is about the clearest indication we can ever have that it is not working in its present form. And from the hearings that we have held so far, I am encouraged that at least every Member seems to be able to agree on that.    At one time, an HO-3 was said to have been the broadest, most inclusive form of insurance ever written. HO-3 standard homeowners insurance policy not only covered a lot of perils such as fire and wind at one time, it had liability coverage in it if your kid shot the neighbor with a bow and arrow, and theft provisions, and pretty broad. I don't know if that is still the case, still is considered to be the broadest. But the question I have is a historical one, if any of you could answer it, and that is, if flood was ever included in a standard property insurance policy before, homeowners or otherwise? Can any of you answer that question?</t>
   </si>
   <si>
@@ -343,9 +313,6 @@
     <t>412565</t>
   </si>
   <si>
-    <t>Joyce Beatty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs.  Beatty. Thank you so much, Mr. Chairman, and to our ranking member and to our witnesses today. First, let me say that I support what Ranking Waters said in relationship to wanting to be able to look at a public-private operation. So I am going to try to get through two quick questions, one to you, Mr. Birnbaum, and one to you, Mr. Bradshaw, as it relates to the National Flood Insurance Program and privatization.    To you, Mr. Birnbaum, we have certainly heard some interesting testimony here today. And I have had an opportunity to look through your written statement. And one of the concerns I have is the area of moving away from the National Flood Insurance Program to privatization. I am concerned, I am sure my colleagues on both sides of the aisle are concerned or should be concerned, and I know FEMA is also concerned when you look at the $23 billion in debt. And so I guess my question is if we talk about, as you stated, Mr. Birnbaum, that we move away from privatization and move away from the way it is now to privatization, what happens to the $23 billion in debt? Because certainly one would not expect FEMA or the taxpayers to be left holding the bag. And when you recommend that the National Flood Insurance Program get out of the business of being a flood insurance provider and do its transition, I don't think I saw anywhere in there where you addressed what happens to the $23 billion in debt. Did I miss that? Or is there something there that you can share with us?</t>
   </si>
   <si>
@@ -520,9 +487,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Barr. I thank Mr. Ross for his leadership on trying to tackle this complex issue.    Mr. Murphy, I thank you as well for your efforts in trying to deal with what is clearly a very complicated issue and a huge potential liability for the taxpayers and an affordability issue, frankly, for a lot of my constituents in rural central and eastern Kentucky. I appreciate what H.R. 2901 is trying to do in terms of clarifying that State insurance regulators have the authority to regulate private flood insurance, clarifying the definition of private flood insurance. But I want to have Ms. Miller, Mr. Bradshaw--Mr. Kelley actually address a point that Mr. Birnbaum is making, which I think is a pretty interesting and good point. And that is that there is this impediment to private insurance offering flood coverage based on just the simple fact that they have to compete with the subsidized rates of the NFIP. Even if H.R. 2901 does move us in the right direction in these areas, what do we do about this fundamental problem, about the competition with subsidized rates?</t>
   </si>
   <si>
@@ -556,9 +520,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Williams. Thank you, Mr. Chairman.    And I thank all of the witnesses for your participation today.    Mr. Birnbaum, you heard I am from Texas. In your testimony, you specifically state that private insurers can offer flood insurance and can do so more efficiently and effectively than the NFIP. I am going to agree with you 100 percent on that. And I believe the Federal Government has gotten way over its head on this issue like it does with a lot of things.    But you also state that H.R. 2901, of which I am a cosponsor and proud to be one, will not address the longer term problems with the NFIP, will not promote private market participation in the sale of flood insurance, will create bigger problems in the future when flood events occur, and will eliminate State regulatory oversight. So three questions. Number one, how can H.R. 2901 totally eliminate State regulatory oversight?</t>
   </si>
   <si>
@@ -583,9 +544,6 @@
     <t xml:space="preserve">    Chairman  Luetkemeyer. The gentleman yields back.    With that, the gentlelady from New York, Ms. Velazquez, is recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Velazquez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Velazquez. Thank you, Mr. Chairman.    I am sorry I wasn't here to listen to your testimony, but I was in a markup in the Small Business Committee. We just finished. But I want to thank you all for being here.    And I have just one question, to Mr. Bradshaw.    My district in New York City, which encompasses communities on New York City's Lower East Side and Red Hook, was especially hard hit by Superstorm Sandy.    In a January 2014 report published by the GAO, some stakeholders noted that the rate increases associated with private-sector flood insurance could lower a home's market value. Some stakeholders also expressed concern that whole communities with a high risk of flooding, like those in my district, could become economically unviable if the increase in premium rates makes flood insurance unaffordable for too many residents.    Mr. Bradshaw, how do we ensure premium rates on flood insurance do not rise to such a level that it causes homeownership rates to decline, particularly in vulnerable communities?</t>
   </si>
   <si>
@@ -601,9 +559,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Green. Thank you very much, Mr. Chairman.    And I thank the witnesses.    And, of course, I always thank the ranking member for her leadership on these issues.    I lived through Katrina. And it is inappropriate to say I lived through it because I wasn't actually there--    [Phone rings.]</t>
   </si>
   <si>
@@ -628,9 +583,6 @@
     <t>412527</t>
   </si>
   <si>
-    <t>Patrick Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Murphy. Thank you, Mr. Chairman, and thank you, Ranking Member Cleaver, for today's hearing.    And Ranking Member Waters, thank you for your leadership on this.    And, Mr. Ross, who has now left, I thank him as well for his cooperation, working in a bipartisan manner to make some progress here.    And I very much appreciate the input of all the panelists today, the witnesses, for this important discussion, hearing all your comments, all your thoughts.    The bottom line is, how can we provide more affordable flood insurance options for people all across the country? This legislation that we are discussing, the Flood Insurance Market Parity and Modernization Act, which I have sponsored with my good friend and fellow Floridian, Mr. Ross, aims to do just that.    This Act would provide more choice, greater competition, and less cost in the flood insurance market. It would accelerate the development of more flood insurance options by allowing policies accepted by the State to satisfy mandatory coverage requirements under the NFIP.    Now, when Congress passed the National Flood Insurance Act, its intention was that insurance companies would provide flood insurance coverage for the American people. And when the legislation that was recently updated under the Biggert-Waters Flood Insurance Reform Act of 2012, that intention was, in fact, reaffirmed.    However, due to the, I would say, lack of legal clarity on the particulars of the insurance policies allowed into the program, most lenders have not accepted private flood insurance to meet mandatory coverage requirements.    This bill would solve this problem by providing a simple and clear definition of private flood insurance accepted for the mandatory coverage under the program, consistent with the successful regulation of other forms of insurance in the marketplace--that which is issued by an insurance company licensed, admitted, or otherwise approved to engage in the business of insurance in the State in which the property is located.    I believe there will always be a need for the NFIP, but there is more than enough flood risk out there that can be written right now by the private insurers that are willing to do so, whose capability will only continue to advance with the growth of new technology and modeling.    Ensuring access to private flood insurance choices will help reduce the risks to which taxpayers are exposed under the Federal program. And especially because flood insurance coverage is mandatory in many areas, customers need more competition and options in the flood market to make it more affordable.    So I ask that my colleagues on both sides of the aisle support this legislation to give our people, our constituents more choice, greater competition, and ultimately less costs when it comes to flood insurance.    I came to Congress, as did most of us here, to work with everyone, no matter what the party affiliation, and to solve problems. I think this legislation is one example of an area we can actually make some progress in this last year of this Administration, and I urge my colleagues to do so.    In my remaining time, a question for Mr. Kelley: One topic of discussion that we had in this conversation, writing this legislation dealt with surplus lines and their role in this. Approximately how many surplus lines, if you know off the top of your head, flood insurance policies, in Florida have been accepted for the purposes of NFIP mandatory purchase?</t>
   </si>
   <si>
@@ -743,9 +695,6 @@
   </si>
   <si>
     <t>400145</t>
-  </si>
-  <si>
-    <t>Scott Garrett</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Garrett. Thank you. And I won't use the whole time.    I thank the panel. We have been following some of your testimony back in the office. So just to play off of your points, I guess I will throw it out to Mr. Kelley, and I know it is in some sense putting you on the spot as trying to be the actuary in the room. And what do they say about actuaries? Those are the people who found being a CPA was just too exciting? Something like that.    So, in any event, the question that you posited is what? If you did it what a 1 percent, 99 percent, what would the situation look like, and your answer was that you couldn't exactly say for sure. But I am guessing that if you did it that way, that for the 99 percent--and anybody else can chime in on this--it would be a more favorable rating structure for them than it is right now, right?    So, in New Jersey, if I am in, I am not, but if I am in that 99 percent right now after the last go-around with the maps and what have you, I am seeing my rates go so high that I am having to sell my place, is what--not me, but the people back in Jersey are finding that. If you went to this 1 to 99 situation, theoretically my premiums might be more reasonable. Do you want to--</t>
@@ -1222,11 +1171,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1246,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1274,11 +1219,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1298,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1326,11 +1267,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1350,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1378,11 +1315,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1402,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1430,11 +1363,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1454,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1482,11 +1411,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1506,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1534,11 +1459,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1558,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1586,11 +1507,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1610,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1638,11 +1555,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1662,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1690,11 +1603,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1714,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1742,11 +1651,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1766,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1794,11 +1699,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1818,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1846,11 +1747,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1870,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1898,11 +1795,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1922,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1948,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1974,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2000,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2026,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2052,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2078,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2104,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2130,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2156,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2182,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2208,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2234,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2262,11 +2131,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2286,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2312,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2338,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2364,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2390,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2416,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2442,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2468,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2494,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>66</v>
-      </c>
-      <c r="H51" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2520,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2546,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2572,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2598,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2624,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2650,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2676,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2702,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2728,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2754,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2782,11 +2611,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2806,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2832,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2858,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2884,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2910,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2936,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2962,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2988,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3014,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3040,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3066,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3092,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3118,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3144,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3170,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3196,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3222,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>94</v>
-      </c>
-      <c r="G79" t="s">
-        <v>95</v>
-      </c>
-      <c r="H79" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3248,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3274,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3300,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3326,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3352,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3378,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3404,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3430,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3456,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3482,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3508,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3534,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3560,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3586,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3612,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3638,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3664,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3690,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3716,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3742,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3768,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3794,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3820,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3846,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3872,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3898,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3924,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3950,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3976,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4002,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4028,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4054,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4080,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4106,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4132,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4158,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4184,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4210,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4236,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4262,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4288,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4314,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4340,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4366,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4392,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4418,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4444,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4470,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4496,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4522,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4548,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4574,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4600,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4626,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4652,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4678,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4704,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4730,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4756,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4782,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4808,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4834,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>167</v>
-      </c>
-      <c r="G141" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4860,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4886,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>167</v>
-      </c>
-      <c r="G143" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4912,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4938,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>167</v>
-      </c>
-      <c r="G145" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4964,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4990,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>167</v>
-      </c>
-      <c r="G147" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5016,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5042,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
-      </c>
-      <c r="G149" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5070,11 +4723,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5094,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
-      </c>
-      <c r="G151" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5120,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5146,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>179</v>
-      </c>
-      <c r="G153" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5172,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5198,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
-      </c>
-      <c r="G155" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5224,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5250,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
-      </c>
-      <c r="G157" t="s">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5278,11 +4915,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5302,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" t="s">
-        <v>189</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5328,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5354,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" t="s">
-        <v>189</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5382,11 +5011,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5406,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>194</v>
-      </c>
-      <c r="G163" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5432,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
-      </c>
-      <c r="G164" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5458,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5484,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>194</v>
-      </c>
-      <c r="G166" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5510,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5536,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5564,11 +5179,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5588,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>203</v>
-      </c>
-      <c r="G170" t="s">
-        <v>204</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5614,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5640,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>203</v>
-      </c>
-      <c r="G172" t="s">
-        <v>204</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5666,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5692,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>203</v>
-      </c>
-      <c r="G174" t="s">
-        <v>204</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5720,11 +5323,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5744,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>167</v>
-      </c>
-      <c r="G176" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5770,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5796,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>167</v>
-      </c>
-      <c r="G178" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5822,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
-      </c>
-      <c r="G179" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5848,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>167</v>
-      </c>
-      <c r="G180" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5874,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5900,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>167</v>
-      </c>
-      <c r="G182" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5926,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5952,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>167</v>
-      </c>
-      <c r="G184" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5978,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6004,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
-      </c>
-      <c r="G186" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6030,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>167</v>
-      </c>
-      <c r="G187" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6058,11 +5635,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6082,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6108,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>26</v>
-      </c>
-      <c r="G190" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6134,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6160,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6186,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6212,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
-      </c>
-      <c r="G194" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6238,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6264,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>26</v>
-      </c>
-      <c r="G196" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6290,13 +5849,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6318,11 +5875,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6342,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6370,11 +5923,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6394,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6422,11 +5971,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6446,13 +5993,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>26</v>
-      </c>
-      <c r="G203" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6474,11 +6019,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6498,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6526,11 +6067,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6550,13 +6089,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>242</v>
-      </c>
-      <c r="G207" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6576,13 +6113,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>26</v>
-      </c>
-      <c r="G208" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6602,13 +6137,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>242</v>
-      </c>
-      <c r="G209" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6628,13 +6161,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>26</v>
-      </c>
-      <c r="G210" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6654,13 +6185,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>242</v>
-      </c>
-      <c r="G211" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6680,13 +6209,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6706,13 +6233,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>242</v>
-      </c>
-      <c r="G213" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6732,13 +6257,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6758,13 +6281,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>242</v>
-      </c>
-      <c r="G215" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6784,13 +6305,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>26</v>
-      </c>
-      <c r="G216" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6810,13 +6329,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>242</v>
-      </c>
-      <c r="G217" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6836,13 +6353,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>26</v>
-      </c>
-      <c r="G218" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6862,13 +6377,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>242</v>
-      </c>
-      <c r="G219" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6888,13 +6401,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>26</v>
-      </c>
-      <c r="G220" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6914,13 +6425,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>242</v>
-      </c>
-      <c r="G221" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6940,13 +6449,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>26</v>
-      </c>
-      <c r="G222" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6966,13 +6473,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>242</v>
-      </c>
-      <c r="G223" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
         <v>243</v>
-      </c>
-      <c r="H223" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6992,13 +6497,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>26</v>
-      </c>
-      <c r="G224" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7018,13 +6521,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>242</v>
-      </c>
-      <c r="G225" t="s">
+        <v>226</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
         <v>243</v>
-      </c>
-      <c r="H225" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7044,13 +6545,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>26</v>
-      </c>
-      <c r="G226" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7070,13 +6569,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>242</v>
-      </c>
-      <c r="G227" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7098,11 +6595,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7122,13 +6617,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>242</v>
-      </c>
-      <c r="G229" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7150,11 +6643,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7174,13 +6665,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7200,13 +6689,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
-      </c>
-      <c r="G232" t="s">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7228,11 +6715,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99799.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99799.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412292</t>
   </si>
   <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Okay. Mr. Cleaver managed to make it through our Washington traffic here and has joined us. So let's call the subcommittee to order.    The Subcommittee on Housing and Insurance will come to order. Today's hearing is entitled, ``How to Create a More Robust and Private Flood Insurance Marketplace.''    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Before we begin today, I would like to thank the witnesses for appearing today. I look forward to your testimony.    And I now recognize myself for 2\\1/2\\ minutes to give an opening statement.    Flooding has devastated large areas of my home State of Missouri as well as the neighboring State of Illinois, tragically claiming lives and causing millions of dollars of damage. In the past several months, we have seen similar situations from South Carolina to southern California. Unfortunately, these are not isolated incidents. Flooding continues to be the most prevalent natural disaster in the United States. As communities in Missouri and across the Nation begin to put their lives back together, it is fitting that this subcommittee continues to examine flood insurance and the current construct of the National Flood Insurance Program (NFIP). Yesterday, this subcommittee held a hearing to discuss the state of flood insurance in America.    Last week, I convened a roundtable discussion on flood mapping. What has become evident is that total reliance on insurance coverage for the NFIP is inadequate. Members agree across party lines that policyholders, communities, and taxpayers deserve better. One of the first steps toward reform is to allow policyholders to access market-based flood insurance policies.    H.R. 2901, the Flood Insurance Market Parity and Modernization Act of 2015, introduced by the gentleman from Florida, Mr. Ross, and the gentleman from Florida, Mr. Murphy, would allow for greater consumer choice and private market participation. It does so under the close supervision of the State Insurance Commissioners, the foundation of the regulatory system we have worked in an overwhelming bipartisan fashion to protect. By removing the ambiguity around what qualifies as acceptable flood insurance, property owners will be assured of greater options and flexibility in their choice of policies. Providing private competition to the publicly administered NFIP will also promote competition in markets which have previously been underserved.    I owe it to my constituents back in Missouri, and to all Americans who have suffered from flood damage, to create a program for flood insurance that is stable, accessible, and cost-effective.    Before I yield to the ranking member, I ask unanimous consent to insert into the record letters on H.R. 2901 from the NAIC, PCI, AIA, NAMIC, NAPSLO, the Big ``I,'' CIAB, the National Association of Professional Insurance Agents, the Financial Services Roundtable, the SmarterSafer Coalition, the Reinsurance Association of America, the National Association of REALTORS\x04, MBA, ABA, and the National Multifamily Housing Council and the National Apartment Association. As you can see, there is wide support across the industry spectrum for this alternative to our present system.    Without objection, it is so ordered.    The Chair now recognizes the ranking member of the subcommittee, the gentleman from Missouri, Mr. Cleaver, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400639</t>
   </si>
   <si>
+    <t>Cleaver</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Cleaver. Thank you, Mr. Chairman. Let me, again, thank you, as I did yesterday, for the very proactive step you have taken toward dealing with the issue of insurance before it becomes caught up in a critical year where we are not going to have a lot of workdays. And I think it is appropriate for us to continue, as you have already begun, hearing issues that relate to flood insurance. We discussed yesterday, I think rather broadly, the NFIP, and we highlighted areas where there is room for improvement and discussed ways in which the NFIP could be reauthorized.    Today is our second hearing on flood insurance, and today we will be discussing the role of private insurance in the flood insurance market, which is a significant issue and a significant concern. And we dealt with it yesterday, but I think the key to this whole issue is whether or not the private sector is interested in and willing to become intimately involved in this program. We have attempted this over the years. The program was created in 1968 to provide flood coverage to consumers who were unable to get coverage from the very limited private market. The NFIP is responsible not only for providing flood insurance, but for developing flood maps and promoting mitigation activities.    One of the things that I think we all have come to see is that flooding can occur anywhere. I grew up in a flat part of Texas, the Dallas area on toward probably until you get to Palo Duro Canyon around Amarillo is just flat. And last summer, in this flatland, there was all kinds of flooding. And we do know that it can and does occur everywhere, and can have a devastating impact on our communities. But one of the things we have also learned is that when these major events occur, like Hurricane Katrina, it pretty much decimates any private participation and the government has had to do a lot of backstopping, both for Sandy and Katrina.    And then as we begin to discuss reauthorization of the program, I think we have to ensure products remain affordable and available. Our conversation must also focus on the importance of obtaining accuracy in our mapping, which is a really big issue in the rural part of the 5th District, which I represent in Missouri. And as mapping and risk technology has developed since the creation of the NFIP, the appetite for private insurers to re-enter the flood market has grown.    And so, I look forward to hearing our witnesses today discuss ways in which the private role in flood insurance could grow.    Thank you, Mr. Chairman. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412411</t>
   </si>
   <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Ross. Thank you, Mr. Chairman. And thank you very much for holding this important hearing about an issue to which I am dedicated. And that is, providing American homeowners more affordable consumer options in the flood insurance marketplace. I would also like to thank our distinguished guests for their testimony today, and Representative Patrick Murphy for joining me in introducing the Flood Insurance Market Parity and Modernization Act, which we will be discussing this morning.    Since joining the House Financial Services Committee, I have urged my colleagues to work with me to address the shortcomings of the current government flood insurance model known as the National Flood Insurance Program. Yesterday, we held our first in a series of hearings to examine the problems with this Federal program, and to explore solutions that benefit homeowners. Floridians and Americans across the country would greatly benefit from more choices when it comes to flood insurance policies, and private competition in this market will lead to greater innovations and more affordable and comprehensive policies for consumers.    Unfortunately, regulatory barriers and the bias of regulators favoring NFIP policies have prevented the development of a private flood insurance marketplace. This was not the intention of the Biggert-Waters Act. Rather, it was an unintended consequence. With Florida homeowners in mind, I introduced H.R. 2901, the Flood Insurance Market Parity and Modernization Act. This bipartisan legislation will remove the unnecessary regulatory barriers that are hindering consumers' flood insurance options.    As the primary insurance regulator for my home State of Florida, I am proud that our Commissioner of Insurance Regulation, Kevin McCarty, has offered his full support of this legislation. I urge my colleagues on both sides of the aisle to join me in enacting this commonsense, bipartisan legislation that will encourage the expansion of a well-regulated, more affordable private flood insurance option for homeowners. And I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412570</t>
   </si>
   <si>
+    <t>Rothfus</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Rothfus. Thank you, Mr. Chairman.    It is my privilege to welcome Pennsylvania's Insurance Commissioner, Teresa Miller, to the Financial Services Committee today. Commissioner Miller was confirmed to her role in June of last year. In that capacity, see oversees the fifth largest insurance market in the country, and the fourteenth largest in the world in terms of premium volume. This is a significant and challenging responsibility in our large and diverse State.    Fortunately, Commissioner Miller brings years of experience to her new appointment and to our subcommittee today, having previously served in Oregon's insurance division as well as in the private sector. She will be speaking to us today not just as Pennsylvania's Insurance Commissioner, but also as an active NAIC member.    Commissioner Miller serves on the Federal Advisory Committee on Insurance (FIO), providing advice and recommendations to the Federal Insurance Office on issues such as automobile insurance affordability, and international insurance developments. Given Pennsylvania's history of flooding, and ongoing concerns about the impact of flood insurance policy on its citizens, I expect Commissioner Miller to provide welcome insight into the future of the NFIP and impactful reforms for the committee to consider. Thank you again for coming, Commissioner Miller, and I yield back.</t>
   </si>
   <si>
@@ -85,24 +112,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Miller. Good morning. Thank you, Chairman Luetkemeyer, and Ranking Member Cleaver. And thank you, Congressman Rothfus, for your kind introduction. I appreciate the opportunity to testify today to provide State insurance regulators' views on issues surrounding the development of a private flood insurance market. Facilitating increased private sector involvement in the sale of flood insurance will help promote consumer choice and spur competition. It will also provide homeowners necessary coverage, often at greatly reduced costs. In Pennsylvania, we are finding that in many cases, private carriers are willing to offer comparable coverage at substantially lower cost than NFIP. In one instance, a property owner would have paid a $7,500 annual premium with the NFIP, but found private coverage for a little over $1,400.    Another homeowner was quoted a $6,000 annual premium by NFIP, but found a private policy for $900. Like other types of new coverages, private flood insurance is being developed and offered first by the surplus lines insurers. These insurers typically insure unique or otherwise difficult to underwrite risks that the admitted market is at least initially reluctant to insure. As detailed in my written testimony, we have significant authorities to ensure consumers in the surplus lines market are well-protected. These authorities include capital, surplus, and eligibility requirements on surplus lines carriers, as well as the ability to hold both the insurer and the broker responsible for any misconduct.    As the private flood insurance market grows and more companies offer coverage, including admitted companies, our regulation will continue to evolve to meet the size and the breadth of the market as well as the needs of consumers. However, more can be done to help facilitate the development of this market, providing consumers more choices and more affordable coverage.    One of the objectives of the Biggert-Waters Act was to create opportunities for the growth of the private market as an alternative to the NFIP. Unfortunately, the definition of and the regulatory environment surrounding private flood insurance is at odds with this objective, making it more difficult for insurance regulators to protect consumers and ensure availability. The Flood Insurance Market Parity and Modernization Act addresses these concerns, which is why I am here today to support it.    Specifically, we find it troubling that Biggert-Waters empowered Federal banking and housing regulators and the GSEs to apply their own requirements related to the financial solvency strength or claims-paying ability of private insurance companies from which they will accept private flood insurance. This is highly problematic as banking and housing regulators have neither the expertise nor the experience to regulate insurance companies or markets. Moreover, they have regulatory objectives that while laudable, are fundamentally different than insurance consumer protection and fostering competitive insurance markets.    They are simply ill-suited to regulate insurance, and it is inappropriate for them to have the authority to substitute their judgment for those charged under the law with regulating insurance products and protecting policyholders. To address this, H.R. 2901 includes important language clarifying that State insurance regulators have the same authority and discretion to regulate private flood insurance as they have to regulate other similar insurance products and markets. We very much appreciate these clarifications as they are critical for NAIC's support for this legislation.    Another impediment for entrants into the market is the vague definition of private flood insurance included in Biggert-Waters. In order for a private market to evolve, insurers need flexibility to tailor insurance products to meet consumer needs. Biggert-Waters does not allow for innovation, but rather focuses on ensuring policies don't deviate from its rigid criteria. This is despite the fact that private insurers may be able to offer additional coverage features or greater limits at a more affordable price.    H.R. 2901 provides a clearer definition of private flood insurance by clarifying that State insurance laws solely govern over the insurance transaction. It will ensure that State insurance regulators have the flexibility to approve private flood insurance coverage that is responsive to the needs of their States and constituents, while complying with their State's regulatory requirements. These clarifications will assist in removing the restrictive and confusing language in current law to help prompt more insurers to enter the market if they are willing.    In conclusion, State insurance regulators support efforts to further develop the private market to help provide consumers with access to additional options for flood insurance products and coverage at potentially more affordable prices.    We appreciate very much Congressmen Ross and Murphy's leadership on H.R. 2901, and look forward to continuing to work together as this bill moves forward. I appreciate very much the opportunity to be here on behalf of the NAIC. Thank you.    [The prepared statement of Commissioner Miller can be found on page 129 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Thank you, Ms. Miller.    Mr. Bradshaw, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bradshaw</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Bradshaw. Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee. My name is Steve Bradshaw, and I appreciate the opportunity to testify today on behalf of the Mortgage Bankers Association.    I am currently executive vice president of Standard Mortgage Corporation, a lender and servicer headquartered in New Orleans, Louisiana. The company was founded in 1925 and currently services approximately 28,000 residential mortgage loans throughout the southeast.    This past August marked the 10th anniversary of one of the most significant flood events in U.S. history, Hurricane Katrina. We experienced the massive devastation firsthand. Approximately 3,500 of our servicing customers sustained significant flood damage to their homes. And on a more personal note, nearly two-thirds of our staff lost their homes.    As a result of Hurricane Katrina and two other significant storms in the fall of 2005, more than one million housing units were damaged across five States. There is no doubt that the National Flood Insurance Program was the key component to the Gulf Coast recovery, just as it has been for other communities across the country that have sustained major flooding or are flooding today. But there is also no doubt that the NFIP needs to be reformed. The program is now $23 billion in debt and is simply not sustainable as it is. The Federal Government cannot and should not bear the full burden of post-disaster recovery.    Congress recognized when it passed Biggert-Waters that private sector flood insurance must be allowed to develop in order to ensure a stable, sustainable, and affordable market. Expanding flood insurance options will make it easier for more homeowners to obtain flood insurance. And a competitive flood insurance market will expand available insurance options, lower cost, and increase the number of at-risk properties that are insured. In other words, we are expanding the pool.    For example, many homes that were destroyed in Katrina were not located in a special flood hazard area. Homes outside those zones are not required to have flood insurance. As a result, mortgage servicers like us were liable for the cost when those homes were wiped out. The MBA believes that increased private sector involvement can also serve to shift some of the burden--not all of the burden--of post-disaster recovery away from the Federal Government and to the private sector. This will limit taxpayer exposure to future flood losses.    In light of this, we support H.R. 2901, the Flood Insurance Market Parity and Modernization Act. The bill provides two important improvements to the NFIP. First, the bill clarifies what constitutes an acceptable private flood insurance policy by providing a clear definition of private flood insurance. This will make it easier for lenders to accept private policies to satisfy the mandatory purchase requirement.    Second, H.R. 2901 addresses lenders' concerns regarding continuous coverage requirements. Under current law, it is unclear whether someone previously covered under an NFIP policy who moves to a private sector policy would be eligible to return to the NFIP policy at their previous rate. We are pleased that H.R. 2901 eliminates this disincentive for consumers to choose a private policy. It does so by clarifying that private flood insurance satisfies the continuous coverage requirement.    In summary, MBA supports H.R. 2901 as a simple way to encourage the growth of a competitive private flood insurance market. Increased private sector involvement will hopefully expand available insurance options for borrowers, lower cost for consumers, and reduce taxpayer exposure to flood losses over time. We are especially grateful for the leadership shown by Representatives Dennis Ross and Patrick Murphy on this legislation, and we urge the subcommittee to approve it.    Thank you, again, for the opportunity to testify today. The MBA commends your efforts to expand the private flood insurance market, and I look forward to any questions you may have.    [The prepared statement of Mr. Bradshaw can be found on page 63 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Thank you, Mr. Bradshaw.    Mr. Kelley, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Kelley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Kelley. Good morning, Chairman Luetkemeyer, Ranking Member Cleaver, Chairman Hensarling, and members of the subcommittee. My name is Brady Kelley. I am the executive director of the National Association of Professional Surplus Lines Offices based in Kansas City, Missouri. Thank you for inviting me here today to testify on H.R. 2901.    Surplus lines is a $40.2 billion market. And NAPSLO members broker and underwrite a very high proportion of that. Our market, often referred to as the nonadmitted market, exists to provide insurance coverage for nonstandard and complex risks, and to provide cover for risks that exceed what the standard market is either willing or able to underwrite. It is the State's approach to regulating that market, which includes providing what is freedom from rate and form regulation, that allows it to work as this effective supplement. This fundamental principle is part and parcel to its effective operation and regulation.    Consider, for example, the impact of catastrophic losses that cause standard carriers to either withdraw or significantly curtail underwriting in certain regions of the country, or in certain lines of business. Exhibit one of our testimony tries to illustrate that. Market responses to catastrophic events by measuring the rates at which surplus lines premium has shifted either up or down over time in relation to total U.S. property casualty premium. You see events like the Northridge earthquake, 9/11, and hurricanes in 2005. They were all followed by very clear spikes in surplus lines premium, spikes that exceed the growth of the overall property casualty market. And then you see the reverse being true in years following that where catastrophe losses are lower or as the standard market re-adjusts. Without this safety net, consumers would be left without coverage for their commercial risks and/or their personal assets.    These same fundamentals apply in the case of private flood insurance. Consumers whose flood risks do not fit within the terms and limits of the NFIP, or whose risks are declined by the standard market, will look to our market, surplus lines, for the solution. It is important to point out that this is not new. Why might that be? Property exposures may exceed the $250,000 limit within the NFIP on a residential property, or the half million dollar limit on a commercial property. Homeowners may want replacement coverage rather than actual cash value for their property. They might want to insure additional structures, or list other properties on one policy. They might need additional living expense, basement exposure, and/or business interruption for a commercial entity.    These examples, coupled with communities or zones that are not eligible for NFIP coverage, mean consumer alternatives are absolutely essential. Our written testimony includes some facts and figures about the size of the surplus lines flood insurance market, and while you will see that they represent a relatively small proportion of the overall market, without it, consumers who need it would have no alternative.    This is precisely why we strongly support H.R. 2901. Although our market is currently allowed to provide private flood insurance, the 2012 law created uncertainty for lenders and consumers. Specifically, lenders became uncertain about accepting surplus lines policies in light of the law's requirements, and because it authorized Federal banking and housing regulators to apply their own requirements on private insurance companies. No regulations have been developed since that time. And it is prolonging this uncertainty. Uncertainty is the problem, but H.R. 2901 is the fix. It simply ensures our market's continued role in solving unique and complex flood risks that exceed or differ from the options available through either the NFIP or the standard market.    In addition, H.R. 2901 maintains the authority and primacy of State Insurance Commissioners in regulating private flood insurance. Because of their experience, their strong track record, and their success in regulating the U.S. business, we obviously strongly support that.    We have also provided written testimony describing how the States regulate the surplus lines market. I think Commissioner Miller has already done a pretty thorough job of describing that. So let me simply reiterate the importance and degree of each State's authority over both the insurance company and the surplus lines broker in a surplus lines transaction.    As a result, the 2015 A.M. Best report illustrates an exemplary solvency record for our market. It is included as another exhibit in the testimony. H.R. 2901 will solve the problems and concerns shared by the insurance and banking industries by preserving our market's ability to offer options to consumers. Without it, consumers who need it will have no alternative. Legislators on both sides of the aisle have expressed a desire to not just extend, but to also improve the NFIP going forward. And I think the witnesses over the last couple of days certainly agree with that. We believe H.R. 2901 is a positive step in that direction because it enables the private market to develop, and it allows the NFIP to focus on those properties with repetitive losses and their goal of flood loss mitigation and prevention.    We appreciate Congressmen Ross and Murphy for introducing the bill. Again, we thank you for the opportunity to be here. We look forward to working with you as this bill moves forward. Thank you.    [The prepared statement of Mr. Kelley can be found on page 68 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Luetkemeyer. Thank you, Mr. Kelley.    And Mr. Birnbaum, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Birnbaum</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Birnbaum. Thank you. Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee, my name is Birny Birnbaum. Thank you for the invitation to speak to you today.    The availability and affordability of flood insurance is a critical issue for individual and community well-being, economic development, and a resilient and sustainable future. I have worked on these issues for over 20 years as an insurance regulator, consulting economist, and consumer advocate. Your invitation to testify asked whether the NFIP, as it is presently constituted, represents an ideal model for the effective protection of residential and commercial property owners from damages relating to flooding. The answer to that question is a resounding ``no'' for a number of reasons. The primary problem of the NFIP is the multiple and conflicting goals that Congress has tasked the Program with, and the constraints and requirements Congress has placed on the Program. The starting point for Congress and the Federal Government should be a laser-like focus that Federal expenditures related to flood promote more resilient and sustainable homes, businesses, communities, and infrastructure against the peril of flood.    With this as the clear goal, any proposal regarding the NFIP can be evaluated by asking, ``Does this change promote resiliency and sustainability or not?'' The reason why resiliency and sustainability must be the overarching goal for restructuring the NFIP is that there is no insurance mechanism--public, private, or combo--that will be able to finance increasingly frequent and severe flooding. And a focus on resiliency and sustainability means Federal expenditures as investments today to replace disaster relief expenditures tomorrow.    The way forward: There is a great opportunity for greater reliance on private insurers and markets to provide flood insurance, but H.R. 2901 is not the approach to accomplish this. And certainly, it's not the approach to make the NFIP more financially sound or achieve greater resiliency and sustainability. The best approach for Congress to achieve these goals is to require that flood be covered in standard residential and commercial property insurance policies, and subject to the same State-based regulatory framework that exists for homeowners and commercial property insurance today.    There are four key actions needed by 2017:    One, get the NFIP out of the business of being a flood insurance company by requiring that residential and commercial insurance policies sold by private insurers cover the peril of flood. That requirement turns flood back to the States where all other property insurance products and markets are regulated, and back to private insurers, re-insurers, and catastrophe models who have the capability and capital to provide flood coverage more comprehensively and efficiently than the Federal Government.    Two, transition the NFIP from a direct provider of insurance to a mega-catastrophe re-insurer utilizing the successful model of the Terrorism Risk Insurance Program.    Three, address the affordability problem of flood insurance with Federal, State, and local assistance outside of the insurance system, no-subsidies insurance pricing with an overwhelming emphasis on assistance for lost mitigation as the tool to create more affordable premiums.    And four, reauthorize the NFIP during a period of transition.    As we have seen over the last decade, the congressional changes to the NFIP have lurched from efforts that longer-term reform to responses to current crises, with the responses to current crises often contributing to bigger problems down the road. H.R. 2901 is a response to a current issue. Federal agencies have been slow in promulgating rules regarding private flood insurance and surplus lines insurers see an opportunity to pick off NFIP policies that are mispriced due to NFIP rating practices.    H.R. 2901 will not address the longer-term problems of the NFIP, will not meaningfully promote private market participation in the sale of flood insurance, and will create bigger problems in the future when a flood event occurs. H.R. 2901 attempts to encourage private flood by defining private flood to include surplus lines insurance for residential properties, and by eliminating Federal oversight, removing current consumer protection requirements for private flood, removing the authority of Federal agencies to implement those requirements, and removing the authority of Government-Sponsored Enterprises (GSEs) to establish standards for the claims-paying ability of insurers, which they already do now for hazard insurance.    Surplus lines or nonadmitted carriers can be distinguished from admitted insurers in the following ways: Admitted insurers are licensed by a State insurance department to sell certain types of insurance. These insurers are subject to regulatory requirements for the filing and approval of policy forms and rates, are subject to the State's consumer protection laws regarding unfair trade practices and unfair competition, and importantly, participate in the State guaranty fund, which pays claims in the event the admitted insurers become insolvent.    In contrast, surplus lines insurers are not licensed by State insurance departments. Rather, the State department regulates surplus lines agents who are authorized to place coverage with a surplus line insurer on a list of acceptable insurers. Surplus lines policy forms and rates are not subject to regulatory oversight, and surplus lines insurers do not participate in State guaranty funds.    I understand the theory behind H.R. 2901 is that admitted insurers are not willing to write private flood, but surplus lines insurers would be if certain requirements, such as comparability with the NFIP policy or claims settlement requirements, were relaxed.    The story continues that once surplus lines insurers are offering private flood, admitted insurers will be more comfortable. I have seen no empirical evidence to remotely suggest admitted carriers will do as suggested. I have seen surplus lines insurers write business that admitted insurers would have written, and I have seen personalized business migrate from the admitted market to surplus lines when permitted to do so to take advantage of fewer consumer protection requirements.    The actual results of these changes will be for surplus lines insurers to cherry-pick NFIP policies that are currently overpriced due to the NFIP's broad rating scheme and loadings for contingency and reserves. While the surplus lines insurers take the profitable low-risk policies, the NFIP will become even more financially vulnerable as its premium revenue will decline far faster than its risk exposure. H.R. 2901 will not only create financial problems for the NFIP in the future, it will set the table for more problems--</t>
   </si>
   <si>
@@ -190,6 +229,12 @@
     <t>400313</t>
   </si>
   <si>
+    <t>Pearce</t>
+  </si>
+  <si>
+    <t>Stevan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Pearce. Thank you, Mr. Chairman. I appreciate your testimony. Ms. Miller, thanks. Your testimony is extraordinarily clear and precise, especially in the recommendations.    You recommend that more flexibility is needed under Biggert-Waters. Could you describe that flexibility just a little bit? Flesh that out a little bit more? What would it look like?</t>
   </si>
   <si>
@@ -274,6 +319,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Posey. Thank you, Mr. Chairman. And, again, I would like to express my appreciation to Chairman Luetkemeyer for holding these hearings and for his efforts to help us get ahead of this issue a little bit.    The National Flood Insurance Program is currently $23 billion in debt. That is about the clearest indication we can ever have that it is not working in its present form. And from the hearings that we have held so far, I am encouraged that at least every Member seems to be able to agree on that.    At one time, an HO-3 was said to have been the broadest, most inclusive form of insurance ever written. HO-3 standard homeowners insurance policy not only covered a lot of perils such as fire and wind at one time, it had liability coverage in it if your kid shot the neighbor with a bow and arrow, and theft provisions, and pretty broad. I don't know if that is still the case, still is considered to be the broadest. But the question I have is a historical one, if any of you could answer it, and that is, if flood was ever included in a standard property insurance policy before, homeowners or otherwise? Can any of you answer that question?</t>
   </si>
   <si>
@@ -313,6 +364,12 @@
     <t>412565</t>
   </si>
   <si>
+    <t>Beatty</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs.  Beatty. Thank you so much, Mr. Chairman, and to our ranking member and to our witnesses today. First, let me say that I support what Ranking Waters said in relationship to wanting to be able to look at a public-private operation. So I am going to try to get through two quick questions, one to you, Mr. Birnbaum, and one to you, Mr. Bradshaw, as it relates to the National Flood Insurance Program and privatization.    To you, Mr. Birnbaum, we have certainly heard some interesting testimony here today. And I have had an opportunity to look through your written statement. And one of the concerns I have is the area of moving away from the National Flood Insurance Program to privatization. I am concerned, I am sure my colleagues on both sides of the aisle are concerned or should be concerned, and I know FEMA is also concerned when you look at the $23 billion in debt. And so I guess my question is if we talk about, as you stated, Mr. Birnbaum, that we move away from privatization and move away from the way it is now to privatization, what happens to the $23 billion in debt? Because certainly one would not expect FEMA or the taxpayers to be left holding the bag. And when you recommend that the National Flood Insurance Program get out of the business of being a flood insurance provider and do its transition, I don't think I saw anywhere in there where you addressed what happens to the $23 billion in debt. Did I miss that? Or is there something there that you can share with us?</t>
   </si>
   <si>
@@ -487,6 +544,12 @@
     <t>412541</t>
   </si>
   <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Barr. I thank Mr. Ross for his leadership on trying to tackle this complex issue.    Mr. Murphy, I thank you as well for your efforts in trying to deal with what is clearly a very complicated issue and a huge potential liability for the taxpayers and an affordability issue, frankly, for a lot of my constituents in rural central and eastern Kentucky. I appreciate what H.R. 2901 is trying to do in terms of clarifying that State insurance regulators have the authority to regulate private flood insurance, clarifying the definition of private flood insurance. But I want to have Ms. Miller, Mr. Bradshaw--Mr. Kelley actually address a point that Mr. Birnbaum is making, which I think is a pretty interesting and good point. And that is that there is this impediment to private insurance offering flood coverage based on just the simple fact that they have to compete with the subsidized rates of the NFIP. Even if H.R. 2901 does move us in the right direction in these areas, what do we do about this fundamental problem, about the competition with subsidized rates?</t>
   </si>
   <si>
@@ -520,6 +583,12 @@
     <t>412578</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Williams. Thank you, Mr. Chairman.    And I thank all of the witnesses for your participation today.    Mr. Birnbaum, you heard I am from Texas. In your testimony, you specifically state that private insurers can offer flood insurance and can do so more efficiently and effectively than the NFIP. I am going to agree with you 100 percent on that. And I believe the Federal Government has gotten way over its head on this issue like it does with a lot of things.    But you also state that H.R. 2901, of which I am a cosponsor and proud to be one, will not address the longer term problems with the NFIP, will not promote private market participation in the sale of flood insurance, will create bigger problems in the future when flood events occur, and will eliminate State regulatory oversight. So three questions. Number one, how can H.R. 2901 totally eliminate State regulatory oversight?</t>
   </si>
   <si>
@@ -544,6 +613,9 @@
     <t xml:space="preserve">    Chairman  Luetkemeyer. The gentleman yields back.    With that, the gentlelady from New York, Ms. Velazquez, is recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Velazquez. Thank you, Mr. Chairman.    I am sorry I wasn't here to listen to your testimony, but I was in a markup in the Small Business Committee. We just finished. But I want to thank you all for being here.    And I have just one question, to Mr. Bradshaw.    My district in New York City, which encompasses communities on New York City's Lower East Side and Red Hook, was especially hard hit by Superstorm Sandy.    In a January 2014 report published by the GAO, some stakeholders noted that the rate increases associated with private-sector flood insurance could lower a home's market value. Some stakeholders also expressed concern that whole communities with a high risk of flooding, like those in my district, could become economically unviable if the increase in premium rates makes flood insurance unaffordable for too many residents.    Mr. Bradshaw, how do we ensure premium rates on flood insurance do not rise to such a level that it causes homeownership rates to decline, particularly in vulnerable communities?</t>
   </si>
   <si>
@@ -559,6 +631,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Green. Thank you very much, Mr. Chairman.    And I thank the witnesses.    And, of course, I always thank the ranking member for her leadership on these issues.    I lived through Katrina. And it is inappropriate to say I lived through it because I wasn't actually there--    [Phone rings.]</t>
   </si>
   <si>
@@ -583,6 +661,12 @@
     <t>412527</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Murphy. Thank you, Mr. Chairman, and thank you, Ranking Member Cleaver, for today's hearing.    And Ranking Member Waters, thank you for your leadership on this.    And, Mr. Ross, who has now left, I thank him as well for his cooperation, working in a bipartisan manner to make some progress here.    And I very much appreciate the input of all the panelists today, the witnesses, for this important discussion, hearing all your comments, all your thoughts.    The bottom line is, how can we provide more affordable flood insurance options for people all across the country? This legislation that we are discussing, the Flood Insurance Market Parity and Modernization Act, which I have sponsored with my good friend and fellow Floridian, Mr. Ross, aims to do just that.    This Act would provide more choice, greater competition, and less cost in the flood insurance market. It would accelerate the development of more flood insurance options by allowing policies accepted by the State to satisfy mandatory coverage requirements under the NFIP.    Now, when Congress passed the National Flood Insurance Act, its intention was that insurance companies would provide flood insurance coverage for the American people. And when the legislation that was recently updated under the Biggert-Waters Flood Insurance Reform Act of 2012, that intention was, in fact, reaffirmed.    However, due to the, I would say, lack of legal clarity on the particulars of the insurance policies allowed into the program, most lenders have not accepted private flood insurance to meet mandatory coverage requirements.    This bill would solve this problem by providing a simple and clear definition of private flood insurance accepted for the mandatory coverage under the program, consistent with the successful regulation of other forms of insurance in the marketplace--that which is issued by an insurance company licensed, admitted, or otherwise approved to engage in the business of insurance in the State in which the property is located.    I believe there will always be a need for the NFIP, but there is more than enough flood risk out there that can be written right now by the private insurers that are willing to do so, whose capability will only continue to advance with the growth of new technology and modeling.    Ensuring access to private flood insurance choices will help reduce the risks to which taxpayers are exposed under the Federal program. And especially because flood insurance coverage is mandatory in many areas, customers need more competition and options in the flood market to make it more affordable.    So I ask that my colleagues on both sides of the aisle support this legislation to give our people, our constituents more choice, greater competition, and ultimately less costs when it comes to flood insurance.    I came to Congress, as did most of us here, to work with everyone, no matter what the party affiliation, and to solve problems. I think this legislation is one example of an area we can actually make some progress in this last year of this Administration, and I urge my colleagues to do so.    In my remaining time, a question for Mr. Kelley: One topic of discussion that we had in this conversation, writing this legislation dealt with surplus lines and their role in this. Approximately how many surplus lines, if you know off the top of your head, flood insurance policies, in Florida have been accepted for the purposes of NFIP mandatory purchase?</t>
   </si>
   <si>
@@ -695,6 +779,12 @@
   </si>
   <si>
     <t>400145</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Scott</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Garrett. Thank you. And I won't use the whole time.    I thank the panel. We have been following some of your testimony back in the office. So just to play off of your points, I guess I will throw it out to Mr. Kelley, and I know it is in some sense putting you on the spot as trying to be the actuary in the room. And what do they say about actuaries? Those are the people who found being a CPA was just too exciting? Something like that.    So, in any event, the question that you posited is what? If you did it what a 1 percent, 99 percent, what would the situation look like, and your answer was that you couldn't exactly say for sure. But I am guessing that if you did it that way, that for the 99 percent--and anybody else can chime in on this--it would be a more favorable rating structure for them than it is right now, right?    So, in New Jersey, if I am in, I am not, but if I am in that 99 percent right now after the last go-around with the maps and what have you, I am seeing my rates go so high that I am having to sell my place, is what--not me, but the people back in Jersey are finding that. If you went to this 1 to 99 situation, theoretically my premiums might be more reasonable. Do you want to--</t>
@@ -1121,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1219,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,5573 +1241,6534 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
       <c r="H57" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>101</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>101</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>101</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>22</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G105" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
       <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
       <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G117" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s">
+        <v>41</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>27</v>
+      </c>
       <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>27</v>
+      </c>
       <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
       <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
       <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>22</v>
+      </c>
       <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G141" t="s">
+        <v>176</v>
+      </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G143" t="s">
+        <v>176</v>
+      </c>
       <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>156</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G145" t="s">
+        <v>176</v>
+      </c>
       <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
+        <v>38</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>156</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G147" t="s">
+        <v>176</v>
+      </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
+        <v>38</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>156</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G149" t="s">
+        <v>176</v>
+      </c>
       <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>167</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G151" t="s">
+        <v>189</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>41</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>167</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G153" t="s">
+        <v>189</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>41</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G155" t="s">
+        <v>189</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>41</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>167</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G157" t="s">
+        <v>189</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G159" t="s">
+        <v>199</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G161" t="s">
+        <v>199</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G163" t="s">
+        <v>205</v>
+      </c>
       <c r="H163" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G164" t="s">
+        <v>205</v>
+      </c>
       <c r="H164" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G165" t="s">
+        <v>41</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
       <c r="H166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G167" t="s">
+        <v>41</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>180</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
       <c r="H168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>188</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G170" t="s">
+        <v>215</v>
+      </c>
       <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
+        <v>38</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>188</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G172" t="s">
+        <v>215</v>
+      </c>
       <c r="H172" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I172" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G173" t="s">
+        <v>41</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>188</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G174" t="s">
+        <v>215</v>
+      </c>
       <c r="H174" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I174" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>156</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G176" t="s">
+        <v>176</v>
+      </c>
       <c r="H176" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I176" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G177" t="s">
+        <v>41</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>156</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G178" t="s">
+        <v>176</v>
+      </c>
       <c r="H178" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>156</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G180" t="s">
+        <v>176</v>
+      </c>
       <c r="H180" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>156</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G182" t="s">
+        <v>176</v>
+      </c>
       <c r="H182" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>32</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>156</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G184" t="s">
+        <v>176</v>
+      </c>
       <c r="H184" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>38</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>41</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>156</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G187" t="s">
+        <v>176</v>
+      </c>
       <c r="H187" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
       <c r="H189" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
       <c r="H191" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
       <c r="H193" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G194" t="s">
+        <v>41</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
       <c r="H195" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
       <c r="H197" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I197" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G199" t="s">
+        <v>38</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G201" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G203" t="s">
+        <v>38</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G205" t="s">
+        <v>38</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>226</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G207" t="s">
+        <v>255</v>
+      </c>
       <c r="H207" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I207" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G208" t="s">
+        <v>41</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>226</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G209" t="s">
+        <v>255</v>
+      </c>
       <c r="H209" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I209" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G210" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>226</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G211" t="s">
+        <v>255</v>
+      </c>
       <c r="H211" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I211" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G212" t="s">
+        <v>41</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>226</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G213" t="s">
+        <v>255</v>
+      </c>
       <c r="H213" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I213" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>226</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G215" t="s">
+        <v>255</v>
+      </c>
       <c r="H215" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I215" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G216" t="s">
+        <v>41</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>226</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G217" t="s">
+        <v>255</v>
+      </c>
       <c r="H217" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I217" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G218" t="s">
+        <v>41</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>226</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G219" t="s">
+        <v>255</v>
+      </c>
       <c r="H219" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I219" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>22</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G220" t="s">
+        <v>41</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>226</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G221" t="s">
+        <v>255</v>
+      </c>
       <c r="H221" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I221" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>22</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G222" t="s">
+        <v>41</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>226</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G223" t="s">
+        <v>255</v>
+      </c>
       <c r="H223" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I223" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G224" t="s">
+        <v>41</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>226</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G225" t="s">
+        <v>255</v>
+      </c>
       <c r="H225" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I225" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>22</v>
-      </c>
-      <c r="G226" t="s"/>
-      <c r="H226" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G226" t="s">
+        <v>41</v>
+      </c>
+      <c r="H226" t="s"/>
+      <c r="I226" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>226</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G227" t="s">
+        <v>255</v>
+      </c>
       <c r="H227" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I227" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
       <c r="H228" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>226</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G229" t="s">
+        <v>255</v>
+      </c>
       <c r="H229" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I229" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
       <c r="H230" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>22</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G231" t="s">
+        <v>35</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>226</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G232" t="s">
+        <v>255</v>
+      </c>
       <c r="H232" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I232" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
       <c r="H233" t="s">
-        <v>252</v>
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
